--- a/appendix/mean_difference_f1_macro_rest.xlsx
+++ b/appendix/mean_difference_f1_macro_rest.xlsx
@@ -488,20 +488,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings vs. classical-best-tfidf</t>
+          <t>classical-best-embed vs. classical-best-tfidf</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.068</v>
+        <v>0.075</v>
       </c>
       <c r="D2" t="n">
-        <v>0.048</v>
+        <v>0.058</v>
       </c>
       <c r="E2" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="F2" t="n">
         <v>0.035</v>
@@ -513,10 +513,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="J2" t="n">
-        <v>0.061</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="3">
@@ -529,62 +529,62 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.079</v>
+        <v>0.068</v>
       </c>
       <c r="D3" t="n">
-        <v>0.139</v>
+        <v>0.154</v>
       </c>
       <c r="E3" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.167</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.171</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.13</v>
+        <v>0.124</v>
       </c>
       <c r="J3" t="n">
-        <v>0.145</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BERT-base vs. classical-best-embeddings</t>
+          <t>BERT-base vs. classical-best-embed</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.011</v>
+        <v>-0.007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.091</v>
+        <v>0.096</v>
       </c>
       <c r="E4" t="n">
-        <v>0.115</v>
+        <v>0.099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.092</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="I4" t="n">
-        <v>0.079</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="5">
@@ -594,65 +594,65 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.305</v>
+        <v>0.281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217</v>
+        <v>0.222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192</v>
+        <v>0.189</v>
       </c>
       <c r="E5" t="n">
-        <v>0.183</v>
+        <v>0.186</v>
       </c>
       <c r="F5" t="n">
         <v>0.138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.144</v>
+        <v>0.139</v>
       </c>
       <c r="H5" t="n">
-        <v>0.158</v>
+        <v>0.154</v>
       </c>
       <c r="I5" t="n">
-        <v>0.182</v>
+        <v>0.184</v>
       </c>
       <c r="J5" t="n">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BERT-base-nli vs. classical-best-embeddings</t>
+          <t>BERT-base-nli vs. classical-best-embed</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.305</v>
+        <v>0.281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.144</v>
+        <v>0.131</v>
       </c>
       <c r="E6" t="n">
-        <v>0.131</v>
+        <v>0.132</v>
       </c>
       <c r="F6" t="n">
         <v>0.103</v>
       </c>
       <c r="G6" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.073</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.132</v>
+        <v>0.128</v>
       </c>
       <c r="J6" t="n">
-        <v>0.111</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.305</v>
+        <v>0.281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.138</v>
+        <v>0.154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.053</v>
+        <v>0.035</v>
       </c>
       <c r="E7" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.016</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.003</v>
-      </c>
       <c r="G7" t="n">
-        <v>-0.027</v>
+        <v>-0.028</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.021</v>
+        <v>-0.026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.027</v>
+        <v>0.031</v>
       </c>
     </row>
   </sheetData>
